--- a/ai/assets/textbook/pinyin/20211119.xlsx
+++ b/ai/assets/textbook/pinyin/20211119.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessie.chiao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\pinyin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549C063-3E9F-4292-8E29-B5926A4EB58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15168" yWindow="0" windowWidth="13776" windowHeight="14952"/>
+    <workbookView xWindow="1215" yWindow="1605" windowWidth="26925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="429">
   <si>
     <t>发言内容</t>
   </si>
@@ -893,9 +894,6 @@
   </si>
   <si>
     <t>{viplv2}{dt1-11-5-29}看看就好</t>
-  </si>
-  <si>
-    <t>_x0008_双管齐下</t>
   </si>
   <si>
     <t>我爱你</t>
@@ -1360,8 +1358,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1723,20 +1721,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E405"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="E244" sqref="E244"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="71.75" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1750,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1758,7 +1756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1782,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1801,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1855,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>109</v>
       </c>
@@ -1885,7 +1883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -1932,7 +1930,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +1963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,7 +1996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>116</v>
       </c>
@@ -2026,7 +2024,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2038,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -2082,7 +2080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>124</v>
       </c>
@@ -2180,7 +2178,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2208,7 +2206,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>126</v>
       </c>
@@ -2222,7 +2220,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>128</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>130</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
@@ -2306,7 +2304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>134</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -2334,7 +2332,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>138</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -2403,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -2450,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>44</v>
       </c>
@@ -2461,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>141</v>
       </c>
@@ -2486,7 +2484,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>144</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>147</v>
       </c>
@@ -2575,7 +2573,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>49</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>50</v>
       </c>
@@ -2597,7 +2595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>51</v>
       </c>
@@ -2608,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>149</v>
       </c>
@@ -2622,7 +2620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>52</v>
       </c>
@@ -2633,7 +2631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>55</v>
       </c>
@@ -2694,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>56</v>
       </c>
@@ -2705,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>57</v>
       </c>
@@ -2716,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>58</v>
       </c>
@@ -2727,7 +2725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>59</v>
       </c>
@@ -2738,7 +2736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>152</v>
       </c>
@@ -2752,7 +2750,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
@@ -2777,7 +2775,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
@@ -2788,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>63</v>
       </c>
@@ -2813,7 +2811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,7 +2825,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>65</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>158</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>161</v>
       </c>
@@ -2869,7 +2867,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>160</v>
       </c>
@@ -2883,7 +2881,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>66</v>
       </c>
@@ -2894,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +2903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>68</v>
       </c>
@@ -2916,7 +2914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>69</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>163</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>70</v>
       </c>
@@ -2952,7 +2950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>71</v>
       </c>
@@ -2963,7 +2961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>72</v>
       </c>
@@ -2974,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>73</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>74</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>75</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>76</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>165</v>
       </c>
@@ -3029,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>77</v>
       </c>
@@ -3040,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>78</v>
       </c>
@@ -3051,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>79</v>
       </c>
@@ -3062,7 +3060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>168</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>80</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>166</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>81</v>
       </c>
@@ -3112,7 +3110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
@@ -3123,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>83</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>84</v>
       </c>
@@ -3145,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>85</v>
       </c>
@@ -3156,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>86</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>169</v>
       </c>
@@ -3184,7 +3182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>170</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
@@ -3209,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>172</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>88</v>
       </c>
@@ -3234,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>89</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>90</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>91</v>
       </c>
@@ -3267,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>93</v>
       </c>
@@ -3289,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>94</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>95</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>96</v>
       </c>
@@ -3322,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>97</v>
       </c>
@@ -3333,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>98</v>
       </c>
@@ -3344,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>99</v>
       </c>
@@ -3355,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>100</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>101</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>102</v>
       </c>
@@ -3388,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>103</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>104</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>105</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>106</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>107</v>
       </c>
@@ -3443,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>108</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>174</v>
       </c>
@@ -3465,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>175</v>
       </c>
@@ -3476,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>176</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>177</v>
       </c>
@@ -3498,7 +3496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>178</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>179</v>
       </c>
@@ -3520,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>180</v>
       </c>
@@ -3531,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>181</v>
       </c>
@@ -3542,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>182</v>
       </c>
@@ -3553,7 +3551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>183</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>184</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>186</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>185</v>
       </c>
@@ -3597,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>187</v>
       </c>
@@ -3608,7 +3606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>188</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>189</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>190</v>
       </c>
@@ -3641,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>191</v>
       </c>
@@ -3652,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>192</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>193</v>
       </c>
@@ -3674,7 +3672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>194</v>
       </c>
@@ -3685,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>45</v>
       </c>
@@ -3696,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>195</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>196</v>
       </c>
@@ -3718,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>197</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>198</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>199</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>200</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>201</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>202</v>
       </c>
@@ -3784,7 +3782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>203</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>204</v>
       </c>
@@ -3806,7 +3804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>205</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>206</v>
       </c>
@@ -3828,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>207</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>208</v>
       </c>
@@ -3850,7 +3848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>209</v>
       </c>
@@ -3861,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>210</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>211</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>212</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>213</v>
       </c>
@@ -3905,7 +3903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>214</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>215</v>
       </c>
@@ -3927,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>216</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>217</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>218</v>
       </c>
@@ -3960,7 +3958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>219</v>
       </c>
@@ -3971,7 +3969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>220</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>221</v>
       </c>
@@ -3993,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>222</v>
       </c>
@@ -4004,7 +4002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>223</v>
       </c>
@@ -4015,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>224</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>225</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>226</v>
       </c>
@@ -4048,7 +4046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,7 +4057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>227</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>229</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>228</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>230</v>
       </c>
@@ -4103,7 +4101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>231</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>232</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>233</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>234</v>
       </c>
@@ -4147,7 +4145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>235</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>236</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>237</v>
       </c>
@@ -4180,7 +4178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>238</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>239</v>
       </c>
@@ -4202,7 +4200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>240</v>
       </c>
@@ -4213,7 +4211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>241</v>
       </c>
@@ -4224,7 +4222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>242</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>243</v>
       </c>
@@ -4246,7 +4244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>244</v>
       </c>
@@ -4257,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>245</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>246</v>
       </c>
@@ -4279,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>247</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>248</v>
       </c>
@@ -4301,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>249</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>250</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>251</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>252</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>253</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>254</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>255</v>
       </c>
@@ -4378,7 +4376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>256</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>257</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>258</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>259</v>
       </c>
@@ -4422,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>260</v>
       </c>
@@ -4433,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>261</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>262</v>
       </c>
@@ -4455,7 +4453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>263</v>
       </c>
@@ -4466,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>264</v>
       </c>
@@ -4477,7 +4475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>265</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>266</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>267</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>268</v>
       </c>
@@ -4509,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>269</v>
       </c>
@@ -4517,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>270</v>
       </c>
@@ -4525,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>271</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>272</v>
       </c>
@@ -4541,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>273</v>
       </c>
@@ -4549,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>274</v>
       </c>
@@ -4557,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>275</v>
       </c>
@@ -4565,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>276</v>
       </c>
@@ -4573,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>277</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>278</v>
       </c>
@@ -4589,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>279</v>
       </c>
@@ -4597,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>280</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>281</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>282</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>283</v>
       </c>
@@ -4629,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>284</v>
       </c>
@@ -4637,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>285</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>286</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>287</v>
       </c>
@@ -4661,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>288</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>289</v>
       </c>
@@ -4677,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>290</v>
       </c>
@@ -4685,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>291</v>
       </c>
@@ -4693,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>292</v>
       </c>
@@ -4701,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>293</v>
       </c>
@@ -4709,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>294</v>
       </c>
@@ -4717,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>295</v>
       </c>
@@ -4725,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>296</v>
       </c>
@@ -4733,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>297</v>
       </c>
@@ -4741,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>298</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>299</v>
       </c>
@@ -4757,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>300</v>
       </c>
@@ -4765,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>301</v>
       </c>
@@ -4773,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>302</v>
       </c>
@@ -4781,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>303</v>
       </c>
@@ -4789,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>304</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>305</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>306</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>307</v>
       </c>
@@ -4821,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>308</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>309</v>
       </c>
@@ -4837,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>310</v>
       </c>
@@ -4845,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>311</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>312</v>
       </c>
@@ -4861,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>313</v>
       </c>
@@ -4869,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>314</v>
       </c>
@@ -4877,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>315</v>
       </c>
@@ -4885,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>316</v>
       </c>
@@ -4893,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>317</v>
       </c>
@@ -4901,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>318</v>
       </c>
@@ -4909,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>319</v>
       </c>
@@ -4917,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>320</v>
       </c>
@@ -4925,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>321</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>322</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>323</v>
       </c>
@@ -4949,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>324</v>
       </c>
@@ -4957,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>325</v>
       </c>
@@ -4965,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>326</v>
       </c>
@@ -4973,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>327</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>328</v>
       </c>
@@ -4989,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>329</v>
       </c>
@@ -4997,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>330</v>
       </c>
@@ -5005,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>331</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>332</v>
       </c>
@@ -5021,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>333</v>
       </c>
@@ -5029,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>334</v>
       </c>
@@ -5037,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>335</v>
       </c>
@@ -5045,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>336</v>
       </c>
@@ -5053,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>337</v>
       </c>
@@ -5061,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>338</v>
       </c>
@@ -5069,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>339</v>
       </c>
@@ -5077,23 +5075,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>294</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>340</v>
       </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
-        <v>295</v>
-      </c>
       <c r="B313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>341</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>342</v>
       </c>
@@ -5109,23 +5107,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>299</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>343</v>
       </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
-        <v>300</v>
-      </c>
       <c r="B317">
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>344</v>
       </c>
@@ -5133,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>345</v>
       </c>
@@ -5141,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -5149,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>347</v>
       </c>
@@ -5157,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>348</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>349</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>350</v>
       </c>
@@ -5181,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>351</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>352</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>353</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>354</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>355</v>
       </c>
@@ -5221,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>356</v>
       </c>
@@ -5229,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>357</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>358</v>
       </c>
@@ -5245,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>359</v>
       </c>
@@ -5253,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>360</v>
       </c>
@@ -5261,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>361</v>
       </c>
@@ -5269,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>362</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>363</v>
       </c>
@@ -5285,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>364</v>
       </c>
@@ -5293,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>365</v>
       </c>
@@ -5301,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>366</v>
       </c>
@@ -5309,7 +5307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>367</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>368</v>
       </c>
@@ -5325,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>369</v>
       </c>
@@ -5333,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>370</v>
       </c>
@@ -5341,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>371</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>372</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>373</v>
       </c>
@@ -5365,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>374</v>
       </c>
@@ -5373,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>375</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>376</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>377</v>
       </c>
@@ -5397,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>378</v>
       </c>
@@ -5405,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>379</v>
       </c>
@@ -5413,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>380</v>
       </c>
@@ -5421,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>381</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>382</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>383</v>
       </c>
@@ -5445,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>384</v>
       </c>
@@ -5453,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>385</v>
       </c>
@@ -5461,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>386</v>
       </c>
@@ -5469,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>387</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>388</v>
       </c>
@@ -5485,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>389</v>
       </c>
@@ -5493,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>390</v>
       </c>
@@ -5501,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>391</v>
       </c>
@@ -5509,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>392</v>
       </c>
@@ -5517,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>393</v>
       </c>
@@ -5525,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>394</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>395</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>396</v>
       </c>
@@ -5549,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>397</v>
       </c>
@@ -5557,23 +5555,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>328</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
         <v>398</v>
       </c>
-      <c r="B372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2">
-      <c r="A373" t="s">
-        <v>329</v>
-      </c>
       <c r="B373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>399</v>
       </c>
@@ -5581,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>400</v>
       </c>
@@ -5589,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>401</v>
       </c>
@@ -5597,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>402</v>
       </c>
@@ -5605,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>403</v>
       </c>
@@ -5613,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>404</v>
       </c>
@@ -5621,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>405</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>406</v>
       </c>
@@ -5637,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>407</v>
       </c>
@@ -5645,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>408</v>
       </c>
@@ -5653,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>409</v>
       </c>
@@ -5661,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>410</v>
       </c>
@@ -5669,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>411</v>
       </c>
@@ -5677,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>412</v>
       </c>
@@ -5685,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>413</v>
       </c>
@@ -5693,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>414</v>
       </c>
@@ -5701,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>415</v>
       </c>
@@ -5709,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>416</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>417</v>
       </c>
@@ -5725,23 +5723,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>409</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>418</v>
       </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2">
-      <c r="A394" t="s">
-        <v>410</v>
-      </c>
       <c r="B394">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>419</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>420</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>421</v>
       </c>
@@ -5765,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>422</v>
       </c>
@@ -5773,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>423</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>424</v>
       </c>
@@ -5789,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>425</v>
       </c>
@@ -5797,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>426</v>
       </c>
@@ -5805,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>427</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>428</v>
       </c>
@@ -5821,16 +5819,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
-      <c r="A405" t="s">
-        <v>429</v>
-      </c>
-      <c r="B405">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A1:A167">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A167">
     <sortCondition ref="A82"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ai/assets/textbook/pinyin/20211119.xlsx
+++ b/ai/assets/textbook/pinyin/20211119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AIChatFilter\service\ai-chatfilter-service\ai\assets\textbook\pinyin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2549C063-3E9F-4292-8E29-B5926A4EB58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AB70C7-AF0F-476A-9A4F-A1A258C4CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1215" yWindow="1605" windowWidth="26925" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="428">
   <si>
     <t>发言内容</t>
   </si>
@@ -1236,9 +1236,6 @@
   </si>
   <si>
     <t>请问各位</t>
-  </si>
-  <si>
-    <t>_x0008_你这要求真过分</t>
   </si>
   <si>
     <t>养足精神再搞吧</t>
@@ -1722,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E404"/>
+  <dimension ref="A1:E403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="A364" sqref="A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5546,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -5557,7 +5554,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -5725,7 +5722,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -5808,14 +5805,6 @@
         <v>427</v>
       </c>
       <c r="B403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>428</v>
-      </c>
-      <c r="B404">
         <v>0</v>
       </c>
     </row>
